--- a/2-mindados/Materiais/Notas - 2022 Especial - SEM NOME.xlsx
+++ b/2-mindados/Materiais/Notas - 2022 Especial - SEM NOME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Arquivos\UFPR\Disciplinas\2 - Intro  Mineração de Dados\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D228DC-159C-4983-83FB-AFC21BFE7DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D8BBD1-0BBC-49F5-8409-DB874E1B4D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>GRR20174235</t>
   </si>
@@ -95,7 +95,16 @@
     <t>TRABALHO FINAL</t>
   </si>
   <si>
-    <t>NOTA FINAL</t>
+    <t>NOTA FINAL SEM EXAME</t>
+  </si>
+  <si>
+    <t>Exame</t>
+  </si>
+  <si>
+    <t>Nota Final</t>
+  </si>
+  <si>
+    <t>Faltas</t>
   </si>
 </sst>
 </file>
@@ -419,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -554,8 +563,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -598,8 +616,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -617,8 +636,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -651,6 +689,7 @@
     <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentagem" xfId="42" builtinId="5"/>
     <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -662,7 +701,18 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -972,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,10 +1034,10 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1003,214 +1053,400 @@
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.2</v>
       </c>
-      <c r="F3">
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
         <f>SUM(C3:E3)</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11">
+        <f>4/30</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F4">
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
         <f t="shared" ref="F4:F19" si="0">SUM(C4:E4)</f>
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="13">
+        <f>6/30</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>2.9</v>
       </c>
-      <c r="F6">
+      <c r="D6" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E6" s="12">
+        <f>4-0.2-0.5</f>
+        <v>3.3</v>
+      </c>
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I6" s="13">
+        <f>6/30</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>2.9</v>
       </c>
-      <c r="F7">
+      <c r="D7" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E7" s="12">
+        <f>4-0.3-0.2-0.5</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I7" s="13">
+        <f>4/30</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>2.4</v>
       </c>
-      <c r="F8">
+      <c r="D8" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I8" s="13">
+        <f>2/30</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="13">
+        <f>4/30</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>2.4</v>
       </c>
-      <c r="F13">
+      <c r="D13" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="12">
+        <f>4-0.2-0.5</f>
+        <v>3.3</v>
+      </c>
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I13" s="13">
+        <f>8/30</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="D14" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E14" s="12">
+        <f>4-0.3-0.2-0.5</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I14" s="13">
+        <f>2/30</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="F15">
+      <c r="D15" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I15" s="13">
+        <f>6/30</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>2.7</v>
       </c>
-      <c r="F16">
+      <c r="D16" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E16" s="12">
+        <f>4-0.2-0.2-0.2-0.5</f>
+        <v>2.8999999999999995</v>
+      </c>
+      <c r="F16" s="12">
         <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="I16" s="13">
+        <f>2/30</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="F18">
+      <c r="D18" s="12">
+        <v>3</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I18" s="13">
+        <f>6/30</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
+      <c r="D19" s="14">
+        <v>3</v>
+      </c>
+      <c r="E19" s="14">
+        <v>4</v>
+      </c>
+      <c r="F19" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="15">
+        <f>2/30</f>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F3:F19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
